--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Management_Executive_Summary.xlsx
@@ -146,7 +146,7 @@
     <t>As of date:Dec,2020</t>
   </si>
   <si>
-    <t>Printed on:2021-01-26 17:54</t>
+    <t>Printed on:2021-02-10 05:14</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -5921,7 +5921,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>$127,511</a:t>
+            <a:t>$127,488</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
             <a:solidFill>
@@ -6009,8 +6009,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>0.88%
-$1,119</a:t>
+            <a:t>0.83%
+$1,062</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6090,8 +6090,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>0.23%
-$296</a:t>
+            <a:t>0.22%
+$281</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6171,8 +6171,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>1.11%
-$1,415</a:t>
+            <a:t>1.05%
+$1,343</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6258,8 +6258,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>4.04%
-$5,150</a:t>
+            <a:t>3.98%
+$5,078</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6432,8 +6432,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>4.60%
-$5,872</a:t>
+            <a:t>4.55%
+$5,799</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -7302,8 +7302,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>4.53%
-$5,780</a:t>
+            <a:t>4.48%
+$5,708</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -9857,16 +9857,16 @@
         <v>0.998383838383838</v>
       </c>
       <c r="O46" s="72">
-        <v>0.0282174806730691</v>
+        <v>0.0275991998283007</v>
       </c>
       <c r="P46" s="72">
-        <v>0.027567683359659</v>
+        <v>0.0253599481702068</v>
       </c>
       <c r="Q46" s="72">
-        <v>0.0214874897466454</v>
+        <v>0.0210810670566581</v>
       </c>
       <c r="R46" s="72">
-        <v>0.0174706468622362</v>
+        <v>0.015956637530672</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
@@ -10157,19 +10157,19 @@
         <v>19784</v>
       </c>
       <c r="F55" s="71">
-        <v>19874.0464662997</v>
+        <v>19873.8847830175</v>
       </c>
       <c r="G55" s="71">
-        <v>20154.4470657119</v>
+        <v>20150.391613326</v>
       </c>
       <c r="H55" s="71">
-        <v>20441.5613677213</v>
+        <v>20417.618457722103</v>
       </c>
       <c r="I55" s="71">
-        <v>20720.9417443954</v>
+        <v>20677.8497440478</v>
       </c>
       <c r="J55" s="71">
-        <v>20297.749161032098</v>
+        <v>20279.9361495284</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="46" t="s">
@@ -10180,7 +10180,7 @@
         <v>115</v>
       </c>
       <c r="O55" s="71">
-        <v>23019.922971081</v>
+        <v>22778.0774043064</v>
       </c>
       <c r="P55" s="22" t="s">
         <v>116</v>
@@ -10226,7 +10226,7 @@
         <v>115</v>
       </c>
       <c r="O56" s="74">
-        <v>4.34275366645838</v>
+        <v>4.41286954556231</v>
       </c>
       <c r="P56" s="22" t="s">
         <v>116</v>
@@ -10272,7 +10272,7 @@
         <v>0.1</v>
       </c>
       <c r="O57" s="67">
-        <v>0.167231557365715</v>
+        <v>0.165765873014433</v>
       </c>
       <c r="P57" s="75" t="s">
         <v>120</v>
@@ -10295,19 +10295,19 @@
         <v>126904</v>
       </c>
       <c r="F58" s="71">
-        <v>126994.0464663</v>
+        <v>126993.884783017</v>
       </c>
       <c r="G58" s="71">
-        <v>127274.44706571201</v>
+        <v>127270.39161332599</v>
       </c>
       <c r="H58" s="71">
-        <v>127561.561367721</v>
+        <v>127537.618457722</v>
       </c>
       <c r="I58" s="71">
-        <v>127840.941744396</v>
+        <v>127797.849744048</v>
       </c>
       <c r="J58" s="71">
-        <v>127417.749161032</v>
+        <v>127399.936149528</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="46" t="s">
@@ -10318,7 +10318,7 @@
         <v>116</v>
       </c>
       <c r="O58" s="67">
-        <v>-0.00774794491510948</v>
+        <v>-0.00750446000073667</v>
       </c>
       <c r="P58" s="21" t="s">
         <v>116</v>
@@ -10341,19 +10341,19 @@
         <v>125127</v>
       </c>
       <c r="F59" s="71">
-        <v>125217.0464663</v>
+        <v>125216.884783017</v>
       </c>
       <c r="G59" s="71">
-        <v>125497.44706571201</v>
+        <v>125493.39161332599</v>
       </c>
       <c r="H59" s="71">
-        <v>125784.561367721</v>
+        <v>125760.618457722</v>
       </c>
       <c r="I59" s="71">
-        <v>126063.941744396</v>
+        <v>126020.849744048</v>
       </c>
       <c r="J59" s="71">
-        <v>125640.749161032</v>
+        <v>125622.936149528</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="46" t="s">
@@ -10364,7 +10364,7 @@
         <v>-0.1</v>
       </c>
       <c r="O59" s="67">
-        <v>-0.00617161867569995</v>
+        <v>-0.00591112655289981</v>
       </c>
       <c r="P59" s="75" t="s">
         <v>120</v>
@@ -10387,19 +10387,19 @@
         <v>13597</v>
       </c>
       <c r="F60" s="71">
-        <v>13687.0464662997</v>
+        <v>13686.8847830173</v>
       </c>
       <c r="G60" s="71">
-        <v>13967.447065712</v>
+        <v>13963.391613326</v>
       </c>
       <c r="H60" s="71">
-        <v>14254.5613677213</v>
+        <v>14230.618457722001</v>
       </c>
       <c r="I60" s="71">
-        <v>14533.941744395699</v>
+        <v>14490.849744047999</v>
       </c>
       <c r="J60" s="71">
-        <v>14110.7491610322</v>
+        <v>14092.936149528301</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="46" t="s">
@@ -10410,7 +10410,7 @@
         <v>-0.1</v>
       </c>
       <c r="O60" s="67">
-        <v>-0.0528210675725254</v>
+        <v>-0.053479315583676</v>
       </c>
       <c r="P60" s="75" t="s">
         <v>120</v>
@@ -10433,19 +10433,19 @@
         <v>1556</v>
       </c>
       <c r="F61" s="71">
-        <v>1507.2097742212702</v>
+        <v>1507.2359026824302</v>
       </c>
       <c r="G61" s="71">
-        <v>1483.0205193976599</v>
+        <v>1467.5253649091699</v>
       </c>
       <c r="H61" s="71">
-        <v>1461.2656878489902</v>
+        <v>1431.64893300098</v>
       </c>
       <c r="I61" s="71">
-        <v>1420.18293027925</v>
+        <v>1392.612517279</v>
       </c>
       <c r="J61" s="71">
-        <v>5871.67891174717</v>
+        <v>5799.02271787158</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="46" t="s">
@@ -10456,7 +10456,7 @@
         <v>-0.15</v>
       </c>
       <c r="O61" s="67">
-        <v>-0.117122144893445</v>
+        <v>-0.118357510142226</v>
       </c>
       <c r="P61" s="75" t="s">
         <v>120</v>
@@ -10502,7 +10502,7 @@
         <v>-0.25</v>
       </c>
       <c r="O62" s="67">
-        <v>-0.173328127460699</v>
+        <v>-0.177195598117769</v>
       </c>
       <c r="P62" s="75" t="s">
         <v>120</v>
@@ -10525,19 +10525,19 @@
         <v>1344</v>
       </c>
       <c r="F63" s="71">
-        <v>1283.0292895446</v>
+        <v>1283.05541800576</v>
       </c>
       <c r="G63" s="71">
-        <v>1290.4556146460002</v>
+        <v>1274.96046015751</v>
       </c>
       <c r="H63" s="71">
-        <v>1295.59897945495</v>
+        <v>1265.98222460693</v>
       </c>
       <c r="I63" s="71">
-        <v>1281.09074336503</v>
+        <v>1253.52033036478</v>
       </c>
       <c r="J63" s="71">
-        <v>5150.1746270105805</v>
+        <v>5077.5184331349792</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="46" t="s">
@@ -10548,7 +10548,7 @@
         <v>-0.35</v>
       </c>
       <c r="O63" s="67">
-        <v>-0.281336693179859</v>
+        <v>-0.287846989670398</v>
       </c>
       <c r="P63" s="75" t="s">
         <v>120</v>
@@ -10571,19 +10571,19 @@
         <v>299</v>
       </c>
       <c r="F64" s="71">
-        <v>276.191150917519</v>
+        <v>276.211811889916</v>
       </c>
       <c r="G64" s="71">
-        <v>282.063486719385</v>
+        <v>269.810757514049</v>
       </c>
       <c r="H64" s="71">
-        <v>286.130581129773</v>
+        <v>262.711254955065</v>
       </c>
       <c r="I64" s="71">
-        <v>274.658253558674</v>
+        <v>252.857063720767</v>
       </c>
       <c r="J64" s="71">
-        <v>1119.04347232535</v>
+        <v>1061.5908880798</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="46" t="s">
@@ -10647,7 +10647,7 @@
         <v>-0.25</v>
       </c>
       <c r="O65" s="67">
-        <v>-0.124599357494197</v>
+        <v>-0.125868739284039</v>
       </c>
       <c r="P65" s="75" t="s">
         <v>120</v>
@@ -11280,10 +11280,10 @@
         <v>31</v>
       </c>
       <c r="B2" s="3">
-        <v>0.78505669757636</v>
+        <v>0.780728335516178</v>
       </c>
       <c r="C2" s="3">
-        <v>1.70366743</v>
+        <v>1.70340224</v>
       </c>
       <c r="D2" s="3">
         <v>47</v>
@@ -11294,10 +11294,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="3">
-        <v>1.00404270508272</v>
+        <v>1.00402689075697</v>
       </c>
       <c r="C3" s="3">
-        <v>1.55328689658139</v>
+        <v>1.55323439305312</v>
       </c>
       <c r="D3" s="3">
         <v>13</v>
@@ -11308,10 +11308,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="3">
-        <v>0.380343762086141</v>
+        <v>0.380128774386082</v>
       </c>
       <c r="C4" s="3">
-        <v>1.72167854</v>
+        <v>1.7218547</v>
       </c>
       <c r="D4" s="3">
         <v>13</v>
@@ -11322,10 +11322,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="3">
-        <v>0.380343762086141</v>
+        <v>0.380128774386082</v>
       </c>
       <c r="C5" s="3">
-        <v>1.72167854</v>
+        <v>1.7218547</v>
       </c>
       <c r="D5" s="3">
         <v>11</v>
@@ -11336,10 +11336,10 @@
         <v>35</v>
       </c>
       <c r="B6" s="3">
-        <v>0.998754792299321</v>
+        <v>0.997754192738561</v>
       </c>
       <c r="C6" s="3">
-        <v>2.14315465</v>
+        <v>2.14394521</v>
       </c>
       <c r="D6" s="3">
         <v>11</v>

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Management_Executive_Summary.xlsx
@@ -146,7 +146,7 @@
     <t>As of date:Dec,2020</t>
   </si>
   <si>
-    <t>Printed on:2021-02-10 05:14</t>
+    <t>Printed on:2021-03-14 05:12</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -2451,12 +2451,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$C$2:$C$9</c:f>
+              <c:f>'Sheet4'!$C$2:$C$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2474,12 +2474,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$D$2:$D$9</c:f>
+              <c:f>'Sheet4'!$D$2:$D$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2497,12 +2497,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$E$2:$E$9</c:f>
+              <c:f>'Sheet4'!$E$2:$E$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2520,12 +2520,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$F$2:$F$9</c:f>
+              <c:f>'Sheet4'!$F$2:$F$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2543,12 +2543,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$G$2:$G$9</c:f>
+              <c:f>'Sheet4'!$G$2:$G$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2566,12 +2566,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$H$2:$H$9</c:f>
+              <c:f>'Sheet4'!$H$2:$H$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2589,12 +2589,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$I$2:$I$9</c:f>
+              <c:f>'Sheet4'!$I$2:$I$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2612,12 +2612,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$J$2:$J$9</c:f>
+              <c:f>'Sheet4'!$J$2:$J$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2635,12 +2635,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$K$2:$K$9</c:f>
+              <c:f>'Sheet4'!$K$2:$K$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2658,12 +2658,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$L$2:$L$9</c:f>
+              <c:f>'Sheet4'!$L$2:$L$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2681,12 +2681,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$M$2:$M$9</c:f>
+              <c:f>'Sheet4'!$M$2:$M$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2704,12 +2704,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$N$2:$N$9</c:f>
+              <c:f>'Sheet4'!$N$2:$N$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2727,12 +2727,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$O$2:$O$9</c:f>
+              <c:f>'Sheet4'!$O$2:$O$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2750,12 +2750,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$P$2:$P$9</c:f>
+              <c:f>'Sheet4'!$P$2:$P$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2773,12 +2773,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$Q$2:$Q$9</c:f>
+              <c:f>'Sheet4'!$Q$2:$Q$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2814,12 +2814,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$B$2:$B$9</c:f>
+              <c:f>'Sheet4'!$B$2:$B$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2992,12 +2992,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet5'!$A$2:$A$8</c:f>
+              <c:f>'Sheet5'!$A$2:$A$7</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet5'!$B$2:$B$8</c:f>
+              <c:f>'Sheet5'!$B$2:$B$7</c:f>
             </c:numRef>
           </c:val>
           <c:spPr>
@@ -9857,16 +9857,16 @@
         <v>0.998383838383838</v>
       </c>
       <c r="O46" s="72">
-        <v>0.0275991998283007</v>
+        <v>0.027599206135832</v>
       </c>
       <c r="P46" s="72">
-        <v>0.0253599481702068</v>
+        <v>0.0253600077162387</v>
       </c>
       <c r="Q46" s="72">
-        <v>0.0210810670566581</v>
+        <v>0.0210811940042562</v>
       </c>
       <c r="R46" s="72">
-        <v>0.015956637530672</v>
+        <v>0.0159568160601685</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
@@ -10157,19 +10157,19 @@
         <v>19784</v>
       </c>
       <c r="F55" s="71">
-        <v>19873.8847830175</v>
+        <v>19873.884785551898</v>
       </c>
       <c r="G55" s="71">
-        <v>20150.391613326</v>
+        <v>20150.3916538646</v>
       </c>
       <c r="H55" s="71">
-        <v>20417.618457722103</v>
+        <v>20417.6186911802</v>
       </c>
       <c r="I55" s="71">
-        <v>20677.8497440478</v>
+        <v>20677.850522840297</v>
       </c>
       <c r="J55" s="71">
-        <v>20279.9361495284</v>
+        <v>20279.9364133593</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="46" t="s">
@@ -10180,7 +10180,7 @@
         <v>115</v>
       </c>
       <c r="O55" s="71">
-        <v>22778.0774043064</v>
+        <v>22814.8760617835</v>
       </c>
       <c r="P55" s="22" t="s">
         <v>116</v>
@@ -10226,7 +10226,7 @@
         <v>115</v>
       </c>
       <c r="O56" s="74">
-        <v>4.41286954556231</v>
+        <v>4.40731057059092</v>
       </c>
       <c r="P56" s="22" t="s">
         <v>116</v>
@@ -10272,7 +10272,7 @@
         <v>0.1</v>
       </c>
       <c r="O57" s="67">
-        <v>0.165765873014433</v>
+        <v>0.165989220824786</v>
       </c>
       <c r="P57" s="75" t="s">
         <v>120</v>
@@ -10295,19 +10295,19 @@
         <v>126904</v>
       </c>
       <c r="F58" s="71">
-        <v>126993.884783017</v>
+        <v>126993.884785552</v>
       </c>
       <c r="G58" s="71">
-        <v>127270.39161332599</v>
+        <v>127270.391653865</v>
       </c>
       <c r="H58" s="71">
-        <v>127537.618457722</v>
+        <v>127537.61869118</v>
       </c>
       <c r="I58" s="71">
-        <v>127797.849744048</v>
+        <v>127797.850522841</v>
       </c>
       <c r="J58" s="71">
-        <v>127399.936149528</v>
+        <v>127399.936413359</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="46" t="s">
@@ -10318,7 +10318,7 @@
         <v>116</v>
       </c>
       <c r="O58" s="67">
-        <v>-0.00750446000073667</v>
+        <v>-0.00755198073235253</v>
       </c>
       <c r="P58" s="21" t="s">
         <v>116</v>
@@ -10341,19 +10341,19 @@
         <v>125127</v>
       </c>
       <c r="F59" s="71">
-        <v>125216.884783017</v>
+        <v>125216.884785552</v>
       </c>
       <c r="G59" s="71">
-        <v>125493.39161332599</v>
+        <v>125493.391653865</v>
       </c>
       <c r="H59" s="71">
-        <v>125760.618457722</v>
+        <v>125760.61869118</v>
       </c>
       <c r="I59" s="71">
-        <v>126020.849744048</v>
+        <v>126020.850522841</v>
       </c>
       <c r="J59" s="71">
-        <v>125622.936149528</v>
+        <v>125622.936413359</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="46" t="s">
@@ -10364,7 +10364,7 @@
         <v>-0.1</v>
       </c>
       <c r="O59" s="67">
-        <v>-0.00591112655289981</v>
+        <v>-0.00596136691966615</v>
       </c>
       <c r="P59" s="75" t="s">
         <v>120</v>
@@ -10387,19 +10387,19 @@
         <v>13597</v>
       </c>
       <c r="F60" s="71">
-        <v>13686.8847830173</v>
+        <v>13686.884785552</v>
       </c>
       <c r="G60" s="71">
-        <v>13963.391613326</v>
+        <v>13963.3916538647</v>
       </c>
       <c r="H60" s="71">
-        <v>14230.618457722001</v>
+        <v>14230.61869118</v>
       </c>
       <c r="I60" s="71">
-        <v>14490.849744047999</v>
+        <v>14490.8505228407</v>
       </c>
       <c r="J60" s="71">
-        <v>14092.936149528301</v>
+        <v>14092.936413359299</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="46" t="s">
@@ -10410,7 +10410,7 @@
         <v>-0.1</v>
       </c>
       <c r="O60" s="67">
-        <v>-0.053479315583676</v>
+        <v>-0.0534528164576611</v>
       </c>
       <c r="P60" s="75" t="s">
         <v>120</v>
@@ -10433,19 +10433,19 @@
         <v>1556</v>
       </c>
       <c r="F61" s="71">
-        <v>1507.2359026824302</v>
+        <v>1507.23592382944</v>
       </c>
       <c r="G61" s="71">
-        <v>1467.5253649091699</v>
+        <v>1467.52550157432</v>
       </c>
       <c r="H61" s="71">
-        <v>1431.64893300098</v>
+        <v>1431.64945817123</v>
       </c>
       <c r="I61" s="71">
-        <v>1392.612517279</v>
+        <v>1392.61352703229</v>
       </c>
       <c r="J61" s="71">
-        <v>5799.02271787158</v>
+        <v>5799.02441060727</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="46" t="s">
@@ -10456,7 +10456,7 @@
         <v>-0.15</v>
       </c>
       <c r="O61" s="67">
-        <v>-0.118357510142226</v>
+        <v>-0.118329828708049</v>
       </c>
       <c r="P61" s="75" t="s">
         <v>120</v>
@@ -10502,7 +10502,7 @@
         <v>-0.25</v>
       </c>
       <c r="O62" s="67">
-        <v>-0.177195598117769</v>
+        <v>-0.177075207340705</v>
       </c>
       <c r="P62" s="75" t="s">
         <v>120</v>
@@ -10525,19 +10525,19 @@
         <v>1344</v>
       </c>
       <c r="F63" s="71">
-        <v>1283.05541800576</v>
+        <v>1283.05543915277</v>
       </c>
       <c r="G63" s="71">
-        <v>1274.96046015751</v>
+        <v>1274.96059682266</v>
       </c>
       <c r="H63" s="71">
-        <v>1265.98222460693</v>
+        <v>1265.9827497771798</v>
       </c>
       <c r="I63" s="71">
-        <v>1253.52033036478</v>
+        <v>1253.52134011807</v>
       </c>
       <c r="J63" s="71">
-        <v>5077.5184331349792</v>
+        <v>5077.52012587068</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="46" t="s">
@@ -10548,7 +10548,7 @@
         <v>-0.35</v>
       </c>
       <c r="O63" s="67">
-        <v>-0.287846989670398</v>
+        <v>-0.287580379638994</v>
       </c>
       <c r="P63" s="75" t="s">
         <v>120</v>
@@ -10571,19 +10571,19 @@
         <v>299</v>
       </c>
       <c r="F64" s="71">
-        <v>276.211811889916</v>
+        <v>276.21182861182405</v>
       </c>
       <c r="G64" s="71">
-        <v>269.810757514049</v>
+        <v>269.81086558145097</v>
       </c>
       <c r="H64" s="71">
-        <v>262.711254955065</v>
+        <v>262.711670231261</v>
       </c>
       <c r="I64" s="71">
-        <v>252.857063720767</v>
+        <v>252.85786217900102</v>
       </c>
       <c r="J64" s="71">
-        <v>1061.5908880798</v>
+        <v>1061.59222660354</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="46" t="s">
@@ -10647,7 +10647,7 @@
         <v>-0.25</v>
       </c>
       <c r="O65" s="67">
-        <v>-0.125868739284039</v>
+        <v>-0.125761967830809</v>
       </c>
       <c r="P65" s="75" t="s">
         <v>120</v>
@@ -11280,10 +11280,10 @@
         <v>31</v>
       </c>
       <c r="B2" s="3">
-        <v>0.780728335516178</v>
+        <v>0.780200419516794</v>
       </c>
       <c r="C2" s="3">
-        <v>1.70340224</v>
+        <v>1.69882277</v>
       </c>
       <c r="D2" s="3">
         <v>47</v>
@@ -11294,10 +11294,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="3">
-        <v>1.00402689075697</v>
+        <v>1.0038470054406</v>
       </c>
       <c r="C3" s="3">
-        <v>1.55323439305312</v>
+        <v>1.56052504873149</v>
       </c>
       <c r="D3" s="3">
         <v>13</v>
@@ -11308,10 +11308,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="3">
-        <v>0.380128774386082</v>
+        <v>0.380136638103997</v>
       </c>
       <c r="C4" s="3">
-        <v>1.7218547</v>
+        <v>1.7198654</v>
       </c>
       <c r="D4" s="3">
         <v>13</v>
@@ -11322,10 +11322,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="3">
-        <v>0.380128774386082</v>
+        <v>0.380136638103997</v>
       </c>
       <c r="C5" s="3">
-        <v>1.7218547</v>
+        <v>1.7198654</v>
       </c>
       <c r="D5" s="3">
         <v>11</v>
@@ -11336,10 +11336,10 @@
         <v>35</v>
       </c>
       <c r="B6" s="3">
-        <v>0.997754192738561</v>
+        <v>0.997800142703542</v>
       </c>
       <c r="C6" s="3">
-        <v>2.14394521</v>
+        <v>2.14009709</v>
       </c>
       <c r="D6" s="3">
         <v>11</v>
@@ -11620,25 +11620,25 @@
     </row>
     <row r="2" s="3" customFormat="1">
       <c r="A2" s="3">
-        <v>201903</v>
+        <v>201906</v>
       </c>
       <c r="B2" s="3">
-        <v>80525</v>
+        <v>1741.01506172795</v>
       </c>
       <c r="C2" s="3">
-        <v>3100</v>
+        <v>82.4411</v>
       </c>
       <c r="D2" s="3">
-        <v>46649</v>
+        <v>331.5034</v>
       </c>
       <c r="E2" s="3">
-        <v>15517</v>
+        <v>202.9859</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>2523.0001</v>
+        <v>155.1439</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <v>5197.0001</v>
+        <v>455.422</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
@@ -11659,13 +11659,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="4">
-        <v>4027</v>
+        <v>457.5818</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
       </c>
       <c r="P2" s="4">
-        <v>3511.9999</v>
+        <v>55.9368</v>
       </c>
       <c r="Q2" s="4">
         <v>0</v>
@@ -11673,25 +11673,25 @@
     </row>
     <row r="3" s="3" customFormat="1">
       <c r="A3" s="3">
-        <v>201906</v>
+        <v>201909</v>
       </c>
       <c r="B3" s="3">
-        <v>1741.01506172795</v>
+        <v>26078</v>
       </c>
       <c r="C3" s="3">
-        <v>82.4411</v>
+        <v>163</v>
       </c>
       <c r="D3" s="3">
-        <v>331.5034</v>
+        <v>11162</v>
       </c>
       <c r="E3" s="3">
-        <v>202.9859</v>
+        <v>2630.0001</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>155.1439</v>
+        <v>66</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>455.422</v>
+        <v>7904.9999</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
@@ -11712,13 +11712,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="4">
-        <v>457.5818</v>
+        <v>2749</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
       </c>
       <c r="P3" s="4">
-        <v>55.9368</v>
+        <v>1403.0001</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
@@ -11726,25 +11726,25 @@
     </row>
     <row r="4" s="3" customFormat="1">
       <c r="A4" s="3">
-        <v>201909</v>
+        <v>201912</v>
       </c>
       <c r="B4" s="3">
-        <v>26078</v>
+        <v>90087</v>
       </c>
       <c r="C4" s="3">
-        <v>163</v>
+        <v>3617.9999</v>
       </c>
       <c r="D4" s="3">
-        <v>11162</v>
+        <v>53445</v>
       </c>
       <c r="E4" s="3">
-        <v>2630.0001</v>
+        <v>15501.9999</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>66</v>
+        <v>2663</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>7904.9999</v>
+        <v>6791</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -11765,13 +11765,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>2749</v>
+        <v>4474.0001</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
       </c>
       <c r="P4" s="4">
-        <v>1403.0001</v>
+        <v>3594</v>
       </c>
       <c r="Q4" s="4">
         <v>0</v>
@@ -11779,7 +11779,7 @@
     </row>
     <row r="5" s="3" customFormat="1">
       <c r="A5" s="3">
-        <v>201912</v>
+        <v>202003</v>
       </c>
       <c r="B5" s="3">
         <v>90087</v>
@@ -11832,25 +11832,25 @@
     </row>
     <row r="6" s="3" customFormat="1">
       <c r="A6" s="3">
-        <v>202003</v>
+        <v>202006</v>
       </c>
       <c r="B6" s="3">
-        <v>90087</v>
+        <v>24556</v>
       </c>
       <c r="C6" s="3">
-        <v>3617.9999</v>
+        <v>232.9971</v>
       </c>
       <c r="D6" s="3">
-        <v>53445</v>
+        <v>10994.9988</v>
       </c>
       <c r="E6" s="3">
-        <v>15501.9999</v>
+        <v>2570.998</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>2663</v>
+        <v>20.9999</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>6791</v>
+        <v>6977.9973</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -11871,39 +11871,39 @@
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>4474.0001</v>
+        <v>2555.9999</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
       <c r="P6" s="4">
-        <v>3594</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>0</v>
+        <v>1201.9999</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1">
       <c r="A7" s="3">
-        <v>202006</v>
+        <v>202009</v>
       </c>
       <c r="B7" s="3">
-        <v>24556</v>
+        <v>100044</v>
       </c>
       <c r="C7" s="3">
-        <v>232.9971</v>
+        <v>4445.0002</v>
       </c>
       <c r="D7" s="3">
-        <v>10994.9988</v>
+        <v>57616</v>
       </c>
       <c r="E7" s="3">
-        <v>2570.998</v>
+        <v>16254.0001</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>20.9999</v>
+        <v>2758.9999</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>6977.9973</v>
+        <v>10505</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>2555.9999</v>
+        <v>4923</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
@@ -11933,30 +11933,30 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4">
-        <v>1201.9999</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1">
       <c r="A8" s="3">
-        <v>202009</v>
+        <v>202012</v>
       </c>
       <c r="B8" s="3">
-        <v>100044</v>
+        <v>100125</v>
       </c>
       <c r="C8" s="3">
-        <v>4445.0002</v>
+        <v>4470</v>
       </c>
       <c r="D8" s="3">
-        <v>57616</v>
+        <v>57801</v>
       </c>
       <c r="E8" s="3">
-        <v>16254.0001</v>
+        <v>17045.0001</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>2758.9999</v>
+        <v>2641</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -11968,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>10505</v>
+        <v>9524.9999</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -11977,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>4923</v>
+        <v>5172</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
@@ -11986,61 +11986,14 @@
         <v>0</v>
       </c>
       <c r="Q8" s="4">
-        <v>3542</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1">
-      <c r="A9" s="3">
-        <v>202012</v>
-      </c>
-      <c r="B9" s="3">
-        <v>100125</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4470</v>
-      </c>
-      <c r="D9" s="3">
-        <v>57801</v>
-      </c>
-      <c r="E9" s="3">
-        <v>17045.0001</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2641</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>9524.9999</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>5172</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>3471</v>
-      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" s="3" customFormat="1">
       <c r="N10" s="4"/>
@@ -12102,58 +12055,58 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>201906</v>
+        <v>201909</v>
       </c>
       <c r="B2" s="3">
-        <v>-78783.984938272</v>
+        <v>24336.9849382721</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>201909</v>
+        <v>201912</v>
       </c>
       <c r="B3" s="3">
-        <v>24336.9849382721</v>
+        <v>64009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>201912</v>
+        <v>202003</v>
       </c>
       <c r="B4" s="3">
-        <v>64009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>202003</v>
+        <v>202006</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>-65531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>202006</v>
+        <v>202009</v>
       </c>
       <c r="B6" s="3">
-        <v>-65531</v>
+        <v>75488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>202009</v>
+        <v>202012</v>
       </c>
       <c r="B7" s="3">
-        <v>75488</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>202012</v>
+        <v>201712</v>
       </c>
       <c r="B8" s="3">
-        <v>81</v>
+        <v>-41.3523899999987</v>
       </c>
     </row>
     <row r="9">

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Management_Executive_Summary.xlsx
@@ -146,7 +146,7 @@
     <t>As of date:Dec,2020</t>
   </si>
   <si>
-    <t>Printed on:2021-03-14 05:12</t>
+    <t>Printed on:2021-04-08 05:26</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -5921,7 +5921,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>$127,488</a:t>
+            <a:t>$127,489</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
             <a:solidFill>
@@ -7129,7 +7129,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.01%
-$17</a:t>
+$18</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -9857,16 +9857,16 @@
         <v>0.998383838383838</v>
       </c>
       <c r="O46" s="72">
-        <v>0.027599206135832</v>
+        <v>0.0276079159889758</v>
       </c>
       <c r="P46" s="72">
-        <v>0.0253600077162387</v>
+        <v>0.0253640024312822</v>
       </c>
       <c r="Q46" s="72">
-        <v>0.0210811940042562</v>
+        <v>0.0210821722782747</v>
       </c>
       <c r="R46" s="72">
-        <v>0.0159568160601685</v>
+        <v>0.0159595315893025</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
@@ -10157,19 +10157,19 @@
         <v>19784</v>
       </c>
       <c r="F55" s="71">
-        <v>19873.884785551898</v>
+        <v>19873.9295113697</v>
       </c>
       <c r="G55" s="71">
-        <v>20150.3916538646</v>
+        <v>20150.534086511798</v>
       </c>
       <c r="H55" s="71">
-        <v>20417.6186911802</v>
+        <v>20417.7895542565</v>
       </c>
       <c r="I55" s="71">
-        <v>20677.850522840297</v>
+        <v>20678.049457222303</v>
       </c>
       <c r="J55" s="71">
-        <v>20279.9364133593</v>
+        <v>20280.0756523401</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="46" t="s">
@@ -10180,7 +10180,7 @@
         <v>115</v>
       </c>
       <c r="O55" s="71">
-        <v>22814.8760617835</v>
+        <v>22814.8760377612</v>
       </c>
       <c r="P55" s="22" t="s">
         <v>116</v>
@@ -10226,7 +10226,7 @@
         <v>115</v>
       </c>
       <c r="O56" s="74">
-        <v>4.40731057059092</v>
+        <v>4.40730929469913</v>
       </c>
       <c r="P56" s="22" t="s">
         <v>116</v>
@@ -10272,7 +10272,7 @@
         <v>0.1</v>
       </c>
       <c r="O57" s="67">
-        <v>0.165989220824786</v>
+        <v>0.165989220679024</v>
       </c>
       <c r="P57" s="75" t="s">
         <v>120</v>
@@ -10295,19 +10295,19 @@
         <v>126904</v>
       </c>
       <c r="F58" s="71">
-        <v>126993.884785552</v>
+        <v>126993.92951137</v>
       </c>
       <c r="G58" s="71">
-        <v>127270.391653865</v>
+        <v>127270.534086512</v>
       </c>
       <c r="H58" s="71">
-        <v>127537.61869118</v>
+        <v>127537.789554256</v>
       </c>
       <c r="I58" s="71">
-        <v>127797.850522841</v>
+        <v>127798.049457222</v>
       </c>
       <c r="J58" s="71">
-        <v>127399.936413359</v>
+        <v>127400.07565233999</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="46" t="s">
@@ -10318,7 +10318,7 @@
         <v>116</v>
       </c>
       <c r="O58" s="67">
-        <v>-0.00755198073235253</v>
+        <v>-0.00755197972018036</v>
       </c>
       <c r="P58" s="21" t="s">
         <v>116</v>
@@ -10341,19 +10341,19 @@
         <v>125127</v>
       </c>
       <c r="F59" s="71">
-        <v>125216.884785552</v>
+        <v>125216.92951137</v>
       </c>
       <c r="G59" s="71">
-        <v>125493.391653865</v>
+        <v>125493.534086512</v>
       </c>
       <c r="H59" s="71">
-        <v>125760.61869118</v>
+        <v>125760.789554256</v>
       </c>
       <c r="I59" s="71">
-        <v>126020.850522841</v>
+        <v>126021.049457222</v>
       </c>
       <c r="J59" s="71">
-        <v>125622.936413359</v>
+        <v>125623.07565233999</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="46" t="s">
@@ -10364,7 +10364,7 @@
         <v>-0.1</v>
       </c>
       <c r="O59" s="67">
-        <v>-0.00596136691966615</v>
+        <v>-0.00596136590581919</v>
       </c>
       <c r="P59" s="75" t="s">
         <v>120</v>
@@ -10387,19 +10387,19 @@
         <v>13597</v>
       </c>
       <c r="F60" s="71">
-        <v>13686.884785552</v>
+        <v>13686.92951137</v>
       </c>
       <c r="G60" s="71">
-        <v>13963.3916538647</v>
+        <v>13963.534086512</v>
       </c>
       <c r="H60" s="71">
-        <v>14230.61869118</v>
+        <v>14230.7895542563</v>
       </c>
       <c r="I60" s="71">
-        <v>14490.8505228407</v>
+        <v>14491.0494572223</v>
       </c>
       <c r="J60" s="71">
-        <v>14092.936413359299</v>
+        <v>14093.0756523402</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="46" t="s">
@@ -10410,7 +10410,7 @@
         <v>-0.1</v>
       </c>
       <c r="O60" s="67">
-        <v>-0.0534528164576611</v>
+        <v>-0.0534528164792768</v>
       </c>
       <c r="P60" s="75" t="s">
         <v>120</v>
@@ -10433,19 +10433,19 @@
         <v>1556</v>
       </c>
       <c r="F61" s="71">
-        <v>1507.23592382944</v>
+        <v>1507.41418007468</v>
       </c>
       <c r="G61" s="71">
-        <v>1467.52550157432</v>
+        <v>1467.5651607739198</v>
       </c>
       <c r="H61" s="71">
-        <v>1431.64945817123</v>
+        <v>1431.64237698315</v>
       </c>
       <c r="I61" s="71">
-        <v>1392.61352703229</v>
+        <v>1392.72883928285</v>
       </c>
       <c r="J61" s="71">
-        <v>5799.02441060727</v>
+        <v>5799.3505571146106</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="46" t="s">
@@ -10456,7 +10456,7 @@
         <v>-0.15</v>
       </c>
       <c r="O61" s="67">
-        <v>-0.118329828708049</v>
+        <v>-0.118329828764286</v>
       </c>
       <c r="P61" s="75" t="s">
         <v>120</v>
@@ -10502,7 +10502,7 @@
         <v>-0.25</v>
       </c>
       <c r="O62" s="67">
-        <v>-0.177075207340705</v>
+        <v>-0.177075207426068</v>
       </c>
       <c r="P62" s="75" t="s">
         <v>120</v>
@@ -10525,19 +10525,19 @@
         <v>1344</v>
       </c>
       <c r="F63" s="71">
-        <v>1283.05543915277</v>
+        <v>1283.23369539801</v>
       </c>
       <c r="G63" s="71">
-        <v>1274.96059682266</v>
+        <v>1275.0002560222602</v>
       </c>
       <c r="H63" s="71">
-        <v>1265.9827497771798</v>
+        <v>1265.97566858911</v>
       </c>
       <c r="I63" s="71">
-        <v>1253.52134011807</v>
+        <v>1253.63665236863</v>
       </c>
       <c r="J63" s="71">
-        <v>5077.52012587068</v>
+        <v>5077.8462723780094</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="46" t="s">
@@ -10548,7 +10548,7 @@
         <v>-0.35</v>
       </c>
       <c r="O63" s="67">
-        <v>-0.287580379638994</v>
+        <v>-0.287580379808938</v>
       </c>
       <c r="P63" s="75" t="s">
         <v>120</v>
@@ -10571,19 +10571,19 @@
         <v>299</v>
       </c>
       <c r="F64" s="71">
-        <v>276.21182861182405</v>
+        <v>276.352783999119</v>
       </c>
       <c r="G64" s="71">
-        <v>269.81086558145097</v>
+        <v>269.842225929202</v>
       </c>
       <c r="H64" s="71">
-        <v>262.711670231261</v>
+        <v>262.706070811135</v>
       </c>
       <c r="I64" s="71">
-        <v>252.85786217900102</v>
+        <v>252.949044863318</v>
       </c>
       <c r="J64" s="71">
-        <v>1061.59222660354</v>
+        <v>1061.8501256027698</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="46" t="s">
@@ -10647,7 +10647,7 @@
         <v>-0.25</v>
       </c>
       <c r="O65" s="67">
-        <v>-0.125761967830809</v>
+        <v>-0.12576195048527</v>
       </c>
       <c r="P65" s="75" t="s">
         <v>120</v>
@@ -11439,10 +11439,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="2">
-        <v>1.3877538476</v>
+        <v>1.3865810585</v>
       </c>
       <c r="C3" s="2">
-        <v>1.74001833</v>
+        <v>1.7401535</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>
@@ -11453,10 +11453,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>1.7349363385</v>
+        <v>1.7349363484</v>
       </c>
       <c r="C4" s="2">
-        <v>2.26107314</v>
+        <v>2.26107272</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Management_Executive_Summary.xlsx
@@ -146,7 +146,7 @@
     <t>As of date:Dec,2020</t>
   </si>
   <si>
-    <t>Printed on:2021-04-08 05:26</t>
+    <t>Printed on:2021-05-14 14:34</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -11626,7 +11626,7 @@
         <v>1741.01506172795</v>
       </c>
       <c r="C2" s="3">
-        <v>82.4411</v>
+        <v>82.4413</v>
       </c>
       <c r="D2" s="3">
         <v>331.5034</v>
@@ -11685,7 +11685,7 @@
         <v>11162</v>
       </c>
       <c r="E3" s="3">
-        <v>2630.0001</v>
+        <v>2630</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>7904.9999</v>
+        <v>7905</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="4">
-        <v>1403.0001</v>
+        <v>1403</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
@@ -11732,13 +11732,13 @@
         <v>90087</v>
       </c>
       <c r="C4" s="3">
-        <v>3617.9999</v>
+        <v>3618</v>
       </c>
       <c r="D4" s="3">
         <v>53445</v>
       </c>
       <c r="E4" s="3">
-        <v>15501.9999</v>
+        <v>15502</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>4474.0001</v>
+        <v>4474</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
@@ -11785,13 +11785,13 @@
         <v>90087</v>
       </c>
       <c r="C5" s="3">
-        <v>3617.9999</v>
+        <v>3618</v>
       </c>
       <c r="D5" s="3">
         <v>53445</v>
       </c>
       <c r="E5" s="3">
-        <v>15501.9999</v>
+        <v>15502</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -11818,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>4474.0001</v>
+        <v>4474</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
@@ -11838,19 +11838,19 @@
         <v>24556</v>
       </c>
       <c r="C6" s="3">
-        <v>232.9971</v>
+        <v>233</v>
       </c>
       <c r="D6" s="3">
-        <v>10994.9988</v>
+        <v>10995</v>
       </c>
       <c r="E6" s="3">
-        <v>2570.998</v>
+        <v>2571</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>20.9999</v>
+        <v>21</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>6977.9973</v>
+        <v>6978</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>2555.9999</v>
+        <v>2556</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -11880,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>1201.9999</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1">
@@ -11891,19 +11891,19 @@
         <v>100044</v>
       </c>
       <c r="C7" s="3">
-        <v>4445.0002</v>
+        <v>4445</v>
       </c>
       <c r="D7" s="3">
         <v>57616</v>
       </c>
       <c r="E7" s="3">
-        <v>16254.0001</v>
+        <v>16254</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>2758.9999</v>
+        <v>2759</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>57801</v>
       </c>
       <c r="E8" s="3">
-        <v>17045.0001</v>
+        <v>17045</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -11968,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>9524.9999</v>
+        <v>9525</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
